--- a/FAIO_BOM.xlsx
+++ b/FAIO_BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
   <si>
     <t>Index</t>
   </si>
@@ -42,12 +42,6 @@
     <t>Backorder</t>
   </si>
   <si>
-    <t>Unit Price</t>
-  </si>
-  <si>
-    <t>Extended Price</t>
-  </si>
-  <si>
     <t>679-2428-ND</t>
   </si>
   <si>
@@ -187,6 +181,27 @@
   </si>
   <si>
     <t xml:space="preserve">ADAFRUIT FEATHER 32U4 BLUEFRUIT </t>
+  </si>
+  <si>
+    <t>Sip-and-Puff</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Braille</t>
+  </si>
+  <si>
+    <t>Braille &amp; Developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version </t>
+  </si>
+  <si>
+    <t>Unit Price (CAD)</t>
+  </si>
+  <si>
+    <t>Total Price (CAD)</t>
   </si>
 </sst>
 </file>
@@ -226,7 +241,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,115 +558,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
         <v>11</v>
+      </c>
+      <c r="E2">
+        <v>110990037</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="s">
+        <v>10</v>
       </c>
       <c r="H2">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
-      </c>
-      <c r="D3">
-        <v>110990037</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>8.6300000000000008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -658,24 +685,27 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
       </c>
       <c r="H4">
-        <v>8.6300000000000008</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -684,24 +714,27 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -710,24 +743,27 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -736,311 +772,358 @@
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
       </c>
       <c r="H7">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9">
-        <v>4808</v>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
       </c>
       <c r="H9">
-        <v>0.71699999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12">
+        <v>2829</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="J12">
+        <f>SUM(I2:I12)</f>
+        <v>57.028999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>14.33</v>
+      </c>
+      <c r="J13">
+        <f>SUM(I2:I13)</f>
+        <v>71.358999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14">
+        <v>110990027</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16">
+        <v>4808</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0.71699999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17">
+        <v>9605</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
         <v>32</v>
       </c>
-      <c r="D10">
-        <v>9605</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E18">
+        <v>4800</v>
+      </c>
+      <c r="F18" t="s">
         <v>33</v>
       </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0.248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11">
-        <v>4800</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="19" spans="1:10">
+      <c r="I19" t="s">
         <v>36</v>
       </c>
-      <c r="D12">
-        <v>110990027</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>3.97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>14.33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0.17899999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18">
-        <v>2829</v>
-      </c>
-      <c r="E18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>40.200000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="H19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19">
-        <f>SUM(H2:H18)</f>
-        <v>77.069000000000003</v>
+      <c r="J19">
+        <f>SUM(I2:I18)</f>
+        <v>77.068999999999988</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="J12:J13" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/FAIO_BOM.xlsx
+++ b/FAIO_BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
   <si>
     <t>Index</t>
   </si>
@@ -202,6 +202,18 @@
   </si>
   <si>
     <t>Total Price (CAD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All </t>
+  </si>
+  <si>
+    <t>PRT-13851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATTERY LITHIUM 3.7V 400MAH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1568-1493-ND </t>
   </si>
 </sst>
 </file>
@@ -558,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -928,42 +940,35 @@
       <c r="I12">
         <v>40.200000000000003</v>
       </c>
-      <c r="J12">
-        <f>SUM(I2:I12)</f>
-        <v>57.028999999999996</v>
-      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.33</v>
+        <v>6.17</v>
       </c>
       <c r="J13">
         <f>SUM(I2:I13)</f>
-        <v>71.358999999999995</v>
+        <v>63.198999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -971,19 +976,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14">
-        <v>110990027</v>
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -992,7 +997,11 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.97</v>
+        <v>14.33</v>
+      </c>
+      <c r="J14">
+        <f>SUM(I2:I14)</f>
+        <v>77.528999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1000,19 +1009,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
+        <v>34</v>
+      </c>
+      <c r="E15">
+        <v>110990027</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -1021,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.16</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1032,16 +1041,16 @@
         <v>56</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16">
-        <v>4808</v>
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -1050,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.71699999999999997</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1064,13 +1073,13 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17">
-        <v>9605</v>
+        <v>4808</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -1079,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.248</v>
+        <v>0.71699999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1093,37 +1102,66 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>9605</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>32</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>4800</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>33</v>
       </c>
-      <c r="G18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="I19" t="s">
+    <row r="20" spans="1:10">
+      <c r="I20" t="s">
         <v>36</v>
       </c>
-      <c r="J19">
-        <f>SUM(I2:I18)</f>
-        <v>77.068999999999988</v>
+      <c r="J20">
+        <f>SUM(I2:I19)</f>
+        <v>83.23899999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="J12:J13" formulaRange="1"/>
+    <ignoredError sqref="J13:J14" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/FAIO_BOM.xlsx
+++ b/FAIO_BOM.xlsx
@@ -198,19 +198,19 @@
     <t xml:space="preserve">1568-1493-ND </t>
   </si>
   <si>
-    <t xml:space="preserve">AE10862-ND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">V6516H </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEX STANDOFF M2.5 BRASS 25MM </t>
-  </si>
-  <si>
     <t xml:space="preserve">36-29301-ND </t>
   </si>
   <si>
     <t xml:space="preserve">MACHINE SCREW PAN SLOTTED M2.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AE10863-ND </t>
+  </si>
+  <si>
+    <t>V6516G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEX STANDOFF M2.5 BRASS 20MM </t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1076,13 +1076,13 @@
         <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>10</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="2">
-        <v>0.59</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1105,13 +1105,13 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2">
         <v>29301</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>10</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="J19" s="2">
         <f>J14+(I15*C15+I16*C16+I17*C17+I18*C18)</f>
-        <v>90.459000000000003</v>
+        <v>90.218999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/FAIO_BOM.xlsx
+++ b/FAIO_BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
   <si>
     <t>Index</t>
   </si>
@@ -198,19 +198,22 @@
     <t xml:space="preserve">1568-1493-ND </t>
   </si>
   <si>
-    <t xml:space="preserve">36-29301-ND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACHINE SCREW PAN SLOTTED M2.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AE10863-ND </t>
-  </si>
-  <si>
-    <t>V6516G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEX STANDOFF M2.5 BRASS 20MM </t>
+    <t xml:space="preserve">HEX NUT 0.217" M3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H762-ND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RP809-ND </t>
+  </si>
+  <si>
+    <t>NMS-308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MACHINE SCREW PAN PHILLIPS M3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MHNZ 003 </t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1002,38 +1005,31 @@
       <c r="I14" s="2">
         <v>14.33</v>
       </c>
-      <c r="J14" s="2">
-        <f>J13+I14*C14</f>
-        <v>78.528999999999996</v>
-      </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="2">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="2">
-        <v>110990027</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>3.97</v>
+        <v>48</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>5.4600000000000003E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1041,48 +1037,49 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="2">
-        <v>0.16</v>
+      <c r="I16">
+        <v>0.49</v>
+      </c>
+      <c r="J16" s="2">
+        <f>J13+I14*C14+I15*C15+I16*C16</f>
+        <v>79.618200000000002</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>50</v>
+      <c r="B17" t="s">
+        <v>51</v>
       </c>
       <c r="C17" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
+      </c>
+      <c r="E17" s="2">
+        <v>110990027</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>10</v>
@@ -1091,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="2">
-        <v>0.53</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1102,16 +1099,16 @@
         <v>50</v>
       </c>
       <c r="C18" s="2">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="2">
-        <v>29301</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>10</v>
@@ -1120,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1128,8 +1125,8 @@
         <v>30</v>
       </c>
       <c r="J19" s="2">
-        <f>J14+(I15*C15+I16*C16+I17*C17+I18*C18)</f>
-        <v>90.218999999999994</v>
+        <f>J16+(I17*C17+I18*C18)</f>
+        <v>84.548200000000008</v>
       </c>
     </row>
   </sheetData>
